--- a/python/Statistics/Results/Monthly_trends_RSTs_NCEP_1979-2016.xlsx
+++ b/python/Statistics/Results/Monthly_trends_RSTs_NCEP_1979-2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181945CF-58AD-4B29-B01E-D76FA9762F63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428594B-7F64-4CAD-97AD-BE5E44FD5CBE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,67 +18,25 @@
     <sheet name="West" sheetId="3" r:id="rId3"/>
     <sheet name="Central" sheetId="4" r:id="rId4"/>
     <sheet name="All RSTs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'All RSTs'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'All RSTs'!$A$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'All RSTs'!$A$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'All RSTs'!$A$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'All RSTs'!$A$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'All RSTs'!$AN$2:$AN$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'All RSTs'!$B$10:$AN$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'All RSTs'!$B$11:$AN$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'All RSTs'!$B$12:$AN$12</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'All RSTs'!$B$13:$AN$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'All RSTs'!$B$1:$AN$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'All RSTs'!$B$2:$AN$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'All RSTs'!$A$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'All RSTs'!$B$3:$AN$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'All RSTs'!$B$4:$AN$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'All RSTs'!$B$5:$AN$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'All RSTs'!$B$6:$AN$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'All RSTs'!$B$7:$AN$7</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'All RSTs'!$B$8:$AN$8</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'All RSTs'!$B$9:$AN$9</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'All RSTs'!$A$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'All RSTs'!$A$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'All RSTs'!$A$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'All RSTs'!$A$13</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'All RSTs'!$A$13</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'All RSTs'!$A$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'All RSTs'!$A$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'All RSTs'!$A$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'All RSTs'!$A$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'All RSTs'!$A$6</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'All RSTs'!$A$7</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'All RSTs'!$A$8</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'All RSTs'!$A$9</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'All RSTs'!$B$10:$AN$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'All RSTs'!$A$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'All RSTs'!$B$11:$AN$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'All RSTs'!$B$12:$AN$12</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'All RSTs'!$B$13:$AN$13</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'All RSTs'!$B$1:$AN$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'All RSTs'!$B$2:$AN$2</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'All RSTs'!$B$3:$AN$3</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'All RSTs'!$B$4:$AN$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'All RSTs'!$B$5:$AN$5</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'All RSTs'!$B$6:$AN$6</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'All RSTs'!$B$7:$AN$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'All RSTs'!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'All RSTs'!$B$8:$AN$8</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'All RSTs'!$B$9:$AN$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'All RSTs'!$A$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'All RSTs'!$A$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'All RSTs'!$A$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'All RSTs'!$A$6</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Jan</t>
   </si>
@@ -117,6 +75,18 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>ERA2.5</t>
+  </si>
+  <si>
+    <t>NCEP to ERA 2.5 all months correlation</t>
+  </si>
+  <si>
+    <t>NCEP to ERA all months correlation</t>
   </si>
 </sst>
 </file>
@@ -210,66 +180,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Monthly Distribution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> of RSTs (NCEP)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -279,6 +190,246 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>NCEP (92 RSTs per year)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All RSTs'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$AN$2:$AN$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7105263157894743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.526315789473685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7368421052631575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78947368421052633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3157894736842106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.631578947368421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.605263157894736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3578-4B78-9DD9-DB1C6675C8DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ERA 2.5 (78 RSTs per year)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All RSTs'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$AO$2:$AO$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F490-44BD-A503-CDFC9476C57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ERA 0.75 (67 RSTs per year)</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
@@ -343,52 +494,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All RSTs'!$AN$2:$AN$13</c:f>
+              <c:f>'All RSTs'!$AP$2:$AP$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9729729729729737</c:v>
+                  <c:v>6.7105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.526315789473685</c:v>
+                  <c:v>5.9736842105263159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3421052631578947</c:v>
+                  <c:v>5.1052631578947372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7368421052631575</c:v>
+                  <c:v>4.3783783783783781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.967741935483871</c:v>
+                  <c:v>1.7916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.5555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3809523809523809</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.75</c:v>
+                  <c:v>3.4375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.421052631578947</c:v>
+                  <c:v>8.7105263157894743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.631578947368421</c:v>
+                  <c:v>11.184210526315789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.605263157894736</c:v>
+                  <c:v>8.7105263157894743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3578-4B78-9DD9-DB1C6675C8DB}"/>
+              <c16:uniqueId val="{00000004-F490-44BD-A503-CDFC9476C57D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -482,6 +633,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>RST</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.7134986225895321E-3"/>
+              <c:y val="0.31428287746926376"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -519,6 +738,1339 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="934825776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.214503070127425E-2"/>
+          <c:y val="2.8713608578532945E-2"/>
+          <c:w val="0.28246961245815788"/>
+          <c:h val="0.2282499740986324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Total RSTs - Full</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Year (NCEP)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5464206680047347E-2"/>
+                  <c:y val="-0.13914513749506802"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0211003036385159E-2"/>
+                  <c:y val="-0.25897084555607019"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$14:$AM$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68D2-4E6E-A6AB-629A92605235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1386583503"/>
+        <c:axId val="1394791103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1386583503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394791103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1394791103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386583503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Total RSTs - Oct-Dec (NCEP)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4953211459341516E-2"/>
+                  <c:y val="-0.17430993924273908"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6120494728157788E-3"/>
+                  <c:y val="-0.29475936452812318"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$15:$AM$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E71E-4D2A-9F56-F392FCD4233C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1515041551"/>
+        <c:axId val="1386877615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1515041551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386877615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1386877615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515041551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,6 +2127,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1117,20 +2749,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1155,7 +3819,3023 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F7FC68-CAB3-4232-9C6E-C23E44D8B38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223836</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC591C3-1695-4748-958E-A3DB1BE63515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NO_RSTs"/>
+      <sheetName val="East"/>
+      <sheetName val="West"/>
+      <sheetName val="Central"/>
+      <sheetName val="All RSTs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>11</v>
+          </cell>
+          <cell r="C2">
+            <v>9</v>
+          </cell>
+          <cell r="D2">
+            <v>5</v>
+          </cell>
+          <cell r="E2">
+            <v>10</v>
+          </cell>
+          <cell r="F2">
+            <v>11</v>
+          </cell>
+          <cell r="G2">
+            <v>10</v>
+          </cell>
+          <cell r="H2">
+            <v>9</v>
+          </cell>
+          <cell r="I2">
+            <v>13</v>
+          </cell>
+          <cell r="J2">
+            <v>10</v>
+          </cell>
+          <cell r="K2">
+            <v>7</v>
+          </cell>
+          <cell r="L2">
+            <v>12</v>
+          </cell>
+          <cell r="M2">
+            <v>11</v>
+          </cell>
+          <cell r="N2">
+            <v>14</v>
+          </cell>
+          <cell r="O2">
+            <v>7</v>
+          </cell>
+          <cell r="P2">
+            <v>11</v>
+          </cell>
+          <cell r="Q2">
+            <v>6</v>
+          </cell>
+          <cell r="R2">
+            <v>10</v>
+          </cell>
+          <cell r="S2">
+            <v>12</v>
+          </cell>
+          <cell r="T2">
+            <v>12</v>
+          </cell>
+          <cell r="U2">
+            <v>10</v>
+          </cell>
+          <cell r="V2">
+            <v>16</v>
+          </cell>
+          <cell r="W2">
+            <v>9</v>
+          </cell>
+          <cell r="X2">
+            <v>14</v>
+          </cell>
+          <cell r="Y2">
+            <v>10</v>
+          </cell>
+          <cell r="Z2">
+            <v>9</v>
+          </cell>
+          <cell r="AA2">
+            <v>5</v>
+          </cell>
+          <cell r="AB2">
+            <v>6</v>
+          </cell>
+          <cell r="AC2">
+            <v>10</v>
+          </cell>
+          <cell r="AD2">
+            <v>13</v>
+          </cell>
+          <cell r="AE2">
+            <v>10</v>
+          </cell>
+          <cell r="AF2">
+            <v>7</v>
+          </cell>
+          <cell r="AG2">
+            <v>7</v>
+          </cell>
+          <cell r="AH2">
+            <v>16</v>
+          </cell>
+          <cell r="AI2">
+            <v>3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>7</v>
+          </cell>
+          <cell r="AK2">
+            <v>12</v>
+          </cell>
+          <cell r="AL2">
+            <v>6</v>
+          </cell>
+          <cell r="AM2">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>5</v>
+          </cell>
+          <cell r="C3">
+            <v>11</v>
+          </cell>
+          <cell r="D3">
+            <v>5</v>
+          </cell>
+          <cell r="E3">
+            <v>15</v>
+          </cell>
+          <cell r="F3">
+            <v>5</v>
+          </cell>
+          <cell r="G3">
+            <v>10</v>
+          </cell>
+          <cell r="H3">
+            <v>3</v>
+          </cell>
+          <cell r="I3">
+            <v>8</v>
+          </cell>
+          <cell r="J3">
+            <v>9</v>
+          </cell>
+          <cell r="K3">
+            <v>7</v>
+          </cell>
+          <cell r="L3">
+            <v>9</v>
+          </cell>
+          <cell r="M3">
+            <v>8</v>
+          </cell>
+          <cell r="N3">
+            <v>9</v>
+          </cell>
+          <cell r="O3">
+            <v>4</v>
+          </cell>
+          <cell r="P3">
+            <v>6</v>
+          </cell>
+          <cell r="Q3">
+            <v>4</v>
+          </cell>
+          <cell r="R3">
+            <v>11</v>
+          </cell>
+          <cell r="S3">
+            <v>9</v>
+          </cell>
+          <cell r="T3">
+            <v>7</v>
+          </cell>
+          <cell r="U3">
+            <v>13</v>
+          </cell>
+          <cell r="V3">
+            <v>9</v>
+          </cell>
+          <cell r="W3">
+            <v>13</v>
+          </cell>
+          <cell r="X3">
+            <v>8</v>
+          </cell>
+          <cell r="Y3">
+            <v>9</v>
+          </cell>
+          <cell r="Z3">
+            <v>3</v>
+          </cell>
+          <cell r="AA3">
+            <v>9</v>
+          </cell>
+          <cell r="AB3">
+            <v>10</v>
+          </cell>
+          <cell r="AC3">
+            <v>11</v>
+          </cell>
+          <cell r="AD3">
+            <v>10</v>
+          </cell>
+          <cell r="AE3">
+            <v>10</v>
+          </cell>
+          <cell r="AF3">
+            <v>3</v>
+          </cell>
+          <cell r="AG3">
+            <v>3</v>
+          </cell>
+          <cell r="AH3">
+            <v>2</v>
+          </cell>
+          <cell r="AI3">
+            <v>10</v>
+          </cell>
+          <cell r="AJ3">
+            <v>8</v>
+          </cell>
+          <cell r="AK3">
+            <v>11</v>
+          </cell>
+          <cell r="AL3">
+            <v>6</v>
+          </cell>
+          <cell r="AM3">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>6</v>
+          </cell>
+          <cell r="E4">
+            <v>7</v>
+          </cell>
+          <cell r="F4">
+            <v>6</v>
+          </cell>
+          <cell r="G4">
+            <v>7</v>
+          </cell>
+          <cell r="H4">
+            <v>16</v>
+          </cell>
+          <cell r="I4">
+            <v>6</v>
+          </cell>
+          <cell r="J4">
+            <v>7</v>
+          </cell>
+          <cell r="K4">
+            <v>4</v>
+          </cell>
+          <cell r="L4">
+            <v>7</v>
+          </cell>
+          <cell r="M4">
+            <v>9</v>
+          </cell>
+          <cell r="N4">
+            <v>5</v>
+          </cell>
+          <cell r="O4">
+            <v>6</v>
+          </cell>
+          <cell r="P4">
+            <v>10</v>
+          </cell>
+          <cell r="Q4">
+            <v>4</v>
+          </cell>
+          <cell r="R4">
+            <v>10</v>
+          </cell>
+          <cell r="S4">
+            <v>3</v>
+          </cell>
+          <cell r="T4">
+            <v>8</v>
+          </cell>
+          <cell r="U4">
+            <v>6</v>
+          </cell>
+          <cell r="V4">
+            <v>10</v>
+          </cell>
+          <cell r="W4">
+            <v>3</v>
+          </cell>
+          <cell r="X4">
+            <v>11</v>
+          </cell>
+          <cell r="Y4">
+            <v>7</v>
+          </cell>
+          <cell r="Z4">
+            <v>7</v>
+          </cell>
+          <cell r="AA4">
+            <v>10</v>
+          </cell>
+          <cell r="AB4">
+            <v>6</v>
+          </cell>
+          <cell r="AC4">
+            <v>3</v>
+          </cell>
+          <cell r="AD4">
+            <v>6</v>
+          </cell>
+          <cell r="AE4">
+            <v>8</v>
+          </cell>
+          <cell r="AF4">
+            <v>1</v>
+          </cell>
+          <cell r="AG4">
+            <v>7</v>
+          </cell>
+          <cell r="AH4">
+            <v>7</v>
+          </cell>
+          <cell r="AI4">
+            <v>6</v>
+          </cell>
+          <cell r="AJ4">
+            <v>4</v>
+          </cell>
+          <cell r="AK4">
+            <v>6</v>
+          </cell>
+          <cell r="AL4">
+            <v>8</v>
+          </cell>
+          <cell r="AM4">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>7</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5">
+            <v>5</v>
+          </cell>
+          <cell r="E5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>4</v>
+          </cell>
+          <cell r="G5">
+            <v>3</v>
+          </cell>
+          <cell r="H5">
+            <v>3</v>
+          </cell>
+          <cell r="I5">
+            <v>9</v>
+          </cell>
+          <cell r="J5">
+            <v>4</v>
+          </cell>
+          <cell r="K5">
+            <v>12</v>
+          </cell>
+          <cell r="L5">
+            <v>11</v>
+          </cell>
+          <cell r="M5">
+            <v>4</v>
+          </cell>
+          <cell r="N5">
+            <v>6</v>
+          </cell>
+          <cell r="O5">
+            <v>4</v>
+          </cell>
+          <cell r="P5">
+            <v>6</v>
+          </cell>
+          <cell r="Q5">
+            <v>4</v>
+          </cell>
+          <cell r="R5">
+            <v>5</v>
+          </cell>
+          <cell r="S5">
+            <v>6</v>
+          </cell>
+          <cell r="T5">
+            <v>4</v>
+          </cell>
+          <cell r="U5">
+            <v>6</v>
+          </cell>
+          <cell r="V5">
+            <v>6</v>
+          </cell>
+          <cell r="W5">
+            <v>2</v>
+          </cell>
+          <cell r="X5">
+            <v>6</v>
+          </cell>
+          <cell r="Y5">
+            <v>2</v>
+          </cell>
+          <cell r="Z5">
+            <v>1</v>
+          </cell>
+          <cell r="AA5">
+            <v>5</v>
+          </cell>
+          <cell r="AB5">
+            <v>4</v>
+          </cell>
+          <cell r="AC5">
+            <v>2</v>
+          </cell>
+          <cell r="AD5">
+            <v>5</v>
+          </cell>
+          <cell r="AE5">
+            <v>3</v>
+          </cell>
+          <cell r="AF5">
+            <v>6</v>
+          </cell>
+          <cell r="AG5">
+            <v>6</v>
+          </cell>
+          <cell r="AH5">
+            <v>3</v>
+          </cell>
+          <cell r="AI5">
+            <v>2</v>
+          </cell>
+          <cell r="AJ5">
+            <v>5</v>
+          </cell>
+          <cell r="AK5">
+            <v>8</v>
+          </cell>
+          <cell r="AL5">
+            <v>4</v>
+          </cell>
+          <cell r="AM5">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>6</v>
+          </cell>
+          <cell r="E6">
+            <v>7</v>
+          </cell>
+          <cell r="F6">
+            <v>2</v>
+          </cell>
+          <cell r="G6">
+            <v>4</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>2</v>
+          </cell>
+          <cell r="J6">
+            <v>5</v>
+          </cell>
+          <cell r="K6">
+            <v>4</v>
+          </cell>
+          <cell r="L6">
+            <v>4</v>
+          </cell>
+          <cell r="M6">
+            <v>2</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+          <cell r="O6">
+            <v>5</v>
+          </cell>
+          <cell r="P6">
+            <v>2</v>
+          </cell>
+          <cell r="Q6">
+            <v>2</v>
+          </cell>
+          <cell r="R6">
+            <v>4</v>
+          </cell>
+          <cell r="S6">
+            <v>1</v>
+          </cell>
+          <cell r="T6">
+            <v>4</v>
+          </cell>
+          <cell r="U6">
+            <v>7</v>
+          </cell>
+          <cell r="V6">
+            <v>7</v>
+          </cell>
+          <cell r="W6">
+            <v>5</v>
+          </cell>
+          <cell r="X6">
+            <v>1</v>
+          </cell>
+          <cell r="Y6">
+            <v>2</v>
+          </cell>
+          <cell r="Z6">
+            <v>14</v>
+          </cell>
+          <cell r="AA6">
+            <v>0</v>
+          </cell>
+          <cell r="AB6">
+            <v>5</v>
+          </cell>
+          <cell r="AC6">
+            <v>3</v>
+          </cell>
+          <cell r="AD6">
+            <v>3</v>
+          </cell>
+          <cell r="AE6">
+            <v>1</v>
+          </cell>
+          <cell r="AF6">
+            <v>2</v>
+          </cell>
+          <cell r="AG6">
+            <v>2</v>
+          </cell>
+          <cell r="AH6">
+            <v>4</v>
+          </cell>
+          <cell r="AI6">
+            <v>2</v>
+          </cell>
+          <cell r="AJ6">
+            <v>5</v>
+          </cell>
+          <cell r="AK6">
+            <v>3</v>
+          </cell>
+          <cell r="AL6">
+            <v>3</v>
+          </cell>
+          <cell r="AM6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+          <cell r="C7">
+            <v>4</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>1</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="M7">
+            <v>3</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>4</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>2</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
+          <cell r="U7">
+            <v>1</v>
+          </cell>
+          <cell r="V7">
+            <v>1</v>
+          </cell>
+          <cell r="W7">
+            <v>6</v>
+          </cell>
+          <cell r="X7">
+            <v>2</v>
+          </cell>
+          <cell r="Y7">
+            <v>4</v>
+          </cell>
+          <cell r="Z7">
+            <v>1</v>
+          </cell>
+          <cell r="AA7">
+            <v>2</v>
+          </cell>
+          <cell r="AB7">
+            <v>3</v>
+          </cell>
+          <cell r="AC7">
+            <v>0</v>
+          </cell>
+          <cell r="AD7">
+            <v>1</v>
+          </cell>
+          <cell r="AE7">
+            <v>2</v>
+          </cell>
+          <cell r="AF7">
+            <v>2</v>
+          </cell>
+          <cell r="AG7">
+            <v>3</v>
+          </cell>
+          <cell r="AH7">
+            <v>0</v>
+          </cell>
+          <cell r="AI7">
+            <v>2</v>
+          </cell>
+          <cell r="AJ7">
+            <v>0</v>
+          </cell>
+          <cell r="AK7">
+            <v>0</v>
+          </cell>
+          <cell r="AL7">
+            <v>0</v>
+          </cell>
+          <cell r="AM7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>2</v>
+          </cell>
+          <cell r="J8">
+            <v>2</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+          <cell r="P8">
+            <v>1</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>1</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
+          <cell r="U8">
+            <v>1</v>
+          </cell>
+          <cell r="V8">
+            <v>0</v>
+          </cell>
+          <cell r="W8">
+            <v>1</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>2</v>
+          </cell>
+          <cell r="AB8">
+            <v>0</v>
+          </cell>
+          <cell r="AC8">
+            <v>0</v>
+          </cell>
+          <cell r="AD8">
+            <v>1</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>1</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>0</v>
+          </cell>
+          <cell r="AI8">
+            <v>3</v>
+          </cell>
+          <cell r="AJ8">
+            <v>0</v>
+          </cell>
+          <cell r="AK8">
+            <v>0</v>
+          </cell>
+          <cell r="AL8">
+            <v>0</v>
+          </cell>
+          <cell r="AM8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>2</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>7</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>2</v>
+          </cell>
+          <cell r="K9">
+            <v>2</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="N9">
+            <v>0</v>
+          </cell>
+          <cell r="O9">
+            <v>2</v>
+          </cell>
+          <cell r="P9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>1</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>2</v>
+          </cell>
+          <cell r="V9">
+            <v>1</v>
+          </cell>
+          <cell r="W9">
+            <v>2</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>0</v>
+          </cell>
+          <cell r="Z9">
+            <v>0</v>
+          </cell>
+          <cell r="AA9">
+            <v>1</v>
+          </cell>
+          <cell r="AB9">
+            <v>0</v>
+          </cell>
+          <cell r="AC9">
+            <v>0</v>
+          </cell>
+          <cell r="AD9">
+            <v>1</v>
+          </cell>
+          <cell r="AE9">
+            <v>4</v>
+          </cell>
+          <cell r="AF9">
+            <v>1</v>
+          </cell>
+          <cell r="AG9">
+            <v>3</v>
+          </cell>
+          <cell r="AH9">
+            <v>0</v>
+          </cell>
+          <cell r="AI9">
+            <v>0</v>
+          </cell>
+          <cell r="AJ9">
+            <v>0</v>
+          </cell>
+          <cell r="AK9">
+            <v>0</v>
+          </cell>
+          <cell r="AL9">
+            <v>5</v>
+          </cell>
+          <cell r="AM9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>4</v>
+          </cell>
+          <cell r="C10">
+            <v>4</v>
+          </cell>
+          <cell r="D10">
+            <v>6</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>4</v>
+          </cell>
+          <cell r="G10">
+            <v>3</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>5</v>
+          </cell>
+          <cell r="J10">
+            <v>9</v>
+          </cell>
+          <cell r="K10">
+            <v>5</v>
+          </cell>
+          <cell r="L10">
+            <v>4</v>
+          </cell>
+          <cell r="M10">
+            <v>3</v>
+          </cell>
+          <cell r="N10">
+            <v>5</v>
+          </cell>
+          <cell r="O10">
+            <v>4</v>
+          </cell>
+          <cell r="P10">
+            <v>1</v>
+          </cell>
+          <cell r="Q10">
+            <v>6</v>
+          </cell>
+          <cell r="R10">
+            <v>3</v>
+          </cell>
+          <cell r="S10">
+            <v>1</v>
+          </cell>
+          <cell r="T10">
+            <v>4</v>
+          </cell>
+          <cell r="U10">
+            <v>2</v>
+          </cell>
+          <cell r="V10">
+            <v>5</v>
+          </cell>
+          <cell r="W10">
+            <v>3</v>
+          </cell>
+          <cell r="X10">
+            <v>1</v>
+          </cell>
+          <cell r="Y10">
+            <v>3</v>
+          </cell>
+          <cell r="Z10">
+            <v>1</v>
+          </cell>
+          <cell r="AA10">
+            <v>3</v>
+          </cell>
+          <cell r="AB10">
+            <v>4</v>
+          </cell>
+          <cell r="AC10">
+            <v>3</v>
+          </cell>
+          <cell r="AD10">
+            <v>6</v>
+          </cell>
+          <cell r="AE10">
+            <v>0</v>
+          </cell>
+          <cell r="AF10">
+            <v>2</v>
+          </cell>
+          <cell r="AG10">
+            <v>4</v>
+          </cell>
+          <cell r="AH10">
+            <v>1</v>
+          </cell>
+          <cell r="AI10">
+            <v>5</v>
+          </cell>
+          <cell r="AJ10">
+            <v>3</v>
+          </cell>
+          <cell r="AK10">
+            <v>2</v>
+          </cell>
+          <cell r="AL10">
+            <v>4</v>
+          </cell>
+          <cell r="AM10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>8</v>
+          </cell>
+          <cell r="C11">
+            <v>12</v>
+          </cell>
+          <cell r="D11">
+            <v>13</v>
+          </cell>
+          <cell r="E11">
+            <v>15</v>
+          </cell>
+          <cell r="F11">
+            <v>10</v>
+          </cell>
+          <cell r="G11">
+            <v>17</v>
+          </cell>
+          <cell r="H11">
+            <v>10</v>
+          </cell>
+          <cell r="I11">
+            <v>12</v>
+          </cell>
+          <cell r="J11">
+            <v>11</v>
+          </cell>
+          <cell r="K11">
+            <v>8</v>
+          </cell>
+          <cell r="L11">
+            <v>7</v>
+          </cell>
+          <cell r="M11">
+            <v>11</v>
+          </cell>
+          <cell r="N11">
+            <v>11</v>
+          </cell>
+          <cell r="O11">
+            <v>4</v>
+          </cell>
+          <cell r="P11">
+            <v>18</v>
+          </cell>
+          <cell r="Q11">
+            <v>20</v>
+          </cell>
+          <cell r="R11">
+            <v>8</v>
+          </cell>
+          <cell r="S11">
+            <v>8</v>
+          </cell>
+          <cell r="T11">
+            <v>15</v>
+          </cell>
+          <cell r="U11">
+            <v>12</v>
+          </cell>
+          <cell r="V11">
+            <v>5</v>
+          </cell>
+          <cell r="W11">
+            <v>11</v>
+          </cell>
+          <cell r="X11">
+            <v>11</v>
+          </cell>
+          <cell r="Y11">
+            <v>10</v>
+          </cell>
+          <cell r="Z11">
+            <v>5</v>
+          </cell>
+          <cell r="AA11">
+            <v>16</v>
+          </cell>
+          <cell r="AB11">
+            <v>12</v>
+          </cell>
+          <cell r="AC11">
+            <v>5</v>
+          </cell>
+          <cell r="AD11">
+            <v>13</v>
+          </cell>
+          <cell r="AE11">
+            <v>5</v>
+          </cell>
+          <cell r="AF11">
+            <v>14</v>
+          </cell>
+          <cell r="AG11">
+            <v>6</v>
+          </cell>
+          <cell r="AH11">
+            <v>8</v>
+          </cell>
+          <cell r="AI11">
+            <v>10</v>
+          </cell>
+          <cell r="AJ11">
+            <v>10</v>
+          </cell>
+          <cell r="AK11">
+            <v>10</v>
+          </cell>
+          <cell r="AL11">
+            <v>12</v>
+          </cell>
+          <cell r="AM11">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>17</v>
+          </cell>
+          <cell r="C12">
+            <v>18</v>
+          </cell>
+          <cell r="D12">
+            <v>10</v>
+          </cell>
+          <cell r="E12">
+            <v>17</v>
+          </cell>
+          <cell r="F12">
+            <v>8</v>
+          </cell>
+          <cell r="G12">
+            <v>14</v>
+          </cell>
+          <cell r="H12">
+            <v>11</v>
+          </cell>
+          <cell r="I12">
+            <v>13</v>
+          </cell>
+          <cell r="J12">
+            <v>17</v>
+          </cell>
+          <cell r="K12">
+            <v>12</v>
+          </cell>
+          <cell r="L12">
+            <v>14</v>
+          </cell>
+          <cell r="M12">
+            <v>15</v>
+          </cell>
+          <cell r="N12">
+            <v>13</v>
+          </cell>
+          <cell r="O12">
+            <v>17</v>
+          </cell>
+          <cell r="P12">
+            <v>14</v>
+          </cell>
+          <cell r="Q12">
+            <v>8</v>
+          </cell>
+          <cell r="R12">
+            <v>12</v>
+          </cell>
+          <cell r="S12">
+            <v>20</v>
+          </cell>
+          <cell r="T12">
+            <v>15</v>
+          </cell>
+          <cell r="U12">
+            <v>14</v>
+          </cell>
+          <cell r="V12">
+            <v>10</v>
+          </cell>
+          <cell r="W12">
+            <v>13</v>
+          </cell>
+          <cell r="X12">
+            <v>11</v>
+          </cell>
+          <cell r="Y12">
+            <v>10</v>
+          </cell>
+          <cell r="Z12">
+            <v>17</v>
+          </cell>
+          <cell r="AA12">
+            <v>12</v>
+          </cell>
+          <cell r="AB12">
+            <v>16</v>
+          </cell>
+          <cell r="AC12">
+            <v>15</v>
+          </cell>
+          <cell r="AD12">
+            <v>7</v>
+          </cell>
+          <cell r="AE12">
+            <v>13</v>
+          </cell>
+          <cell r="AF12">
+            <v>11</v>
+          </cell>
+          <cell r="AG12">
+            <v>19</v>
+          </cell>
+          <cell r="AH12">
+            <v>12</v>
+          </cell>
+          <cell r="AI12">
+            <v>15</v>
+          </cell>
+          <cell r="AJ12">
+            <v>18</v>
+          </cell>
+          <cell r="AK12">
+            <v>11</v>
+          </cell>
+          <cell r="AL12">
+            <v>14</v>
+          </cell>
+          <cell r="AM12">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>8</v>
+          </cell>
+          <cell r="C13">
+            <v>8</v>
+          </cell>
+          <cell r="D13">
+            <v>10</v>
+          </cell>
+          <cell r="E13">
+            <v>10</v>
+          </cell>
+          <cell r="F13">
+            <v>14</v>
+          </cell>
+          <cell r="G13">
+            <v>17</v>
+          </cell>
+          <cell r="H13">
+            <v>10</v>
+          </cell>
+          <cell r="I13">
+            <v>11</v>
+          </cell>
+          <cell r="J13">
+            <v>9</v>
+          </cell>
+          <cell r="K13">
+            <v>12</v>
+          </cell>
+          <cell r="L13">
+            <v>8</v>
+          </cell>
+          <cell r="M13">
+            <v>14</v>
+          </cell>
+          <cell r="N13">
+            <v>4</v>
+          </cell>
+          <cell r="O13">
+            <v>9</v>
+          </cell>
+          <cell r="P13">
+            <v>16</v>
+          </cell>
+          <cell r="Q13">
+            <v>11</v>
+          </cell>
+          <cell r="R13">
+            <v>23</v>
+          </cell>
+          <cell r="S13">
+            <v>6</v>
+          </cell>
+          <cell r="T13">
+            <v>10</v>
+          </cell>
+          <cell r="U13">
+            <v>14</v>
+          </cell>
+          <cell r="V13">
+            <v>15</v>
+          </cell>
+          <cell r="W13">
+            <v>12</v>
+          </cell>
+          <cell r="X13">
+            <v>4</v>
+          </cell>
+          <cell r="Y13">
+            <v>13</v>
+          </cell>
+          <cell r="Z13">
+            <v>18</v>
+          </cell>
+          <cell r="AA13">
+            <v>15</v>
+          </cell>
+          <cell r="AB13">
+            <v>16</v>
+          </cell>
+          <cell r="AC13">
+            <v>14</v>
+          </cell>
+          <cell r="AD13">
+            <v>9</v>
+          </cell>
+          <cell r="AE13">
+            <v>11</v>
+          </cell>
+          <cell r="AF13">
+            <v>7</v>
+          </cell>
+          <cell r="AG13">
+            <v>13</v>
+          </cell>
+          <cell r="AH13">
+            <v>13</v>
+          </cell>
+          <cell r="AI13">
+            <v>9</v>
+          </cell>
+          <cell r="AJ13">
+            <v>9</v>
+          </cell>
+          <cell r="AK13">
+            <v>11</v>
+          </cell>
+          <cell r="AL13">
+            <v>12</v>
+          </cell>
+          <cell r="AM13">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>68</v>
+          </cell>
+          <cell r="C14">
+            <v>80</v>
+          </cell>
+          <cell r="D14">
+            <v>67</v>
+          </cell>
+          <cell r="E14">
+            <v>91</v>
+          </cell>
+          <cell r="F14">
+            <v>68</v>
+          </cell>
+          <cell r="G14">
+            <v>86</v>
+          </cell>
+          <cell r="H14">
+            <v>77</v>
+          </cell>
+          <cell r="I14">
+            <v>83</v>
+          </cell>
+          <cell r="J14">
+            <v>85</v>
+          </cell>
+          <cell r="K14">
+            <v>74</v>
+          </cell>
+          <cell r="L14">
+            <v>77</v>
+          </cell>
+          <cell r="M14">
+            <v>80</v>
+          </cell>
+          <cell r="N14">
+            <v>67</v>
+          </cell>
+          <cell r="O14">
+            <v>63</v>
+          </cell>
+          <cell r="P14">
+            <v>89</v>
+          </cell>
+          <cell r="Q14">
+            <v>66</v>
+          </cell>
+          <cell r="R14">
+            <v>86</v>
+          </cell>
+          <cell r="S14">
+            <v>69</v>
+          </cell>
+          <cell r="T14">
+            <v>79</v>
+          </cell>
+          <cell r="U14">
+            <v>88</v>
+          </cell>
+          <cell r="V14">
+            <v>85</v>
+          </cell>
+          <cell r="W14">
+            <v>80</v>
+          </cell>
+          <cell r="X14">
+            <v>69</v>
+          </cell>
+          <cell r="Y14">
+            <v>70</v>
+          </cell>
+          <cell r="Z14">
+            <v>76</v>
+          </cell>
+          <cell r="AA14">
+            <v>80</v>
+          </cell>
+          <cell r="AB14">
+            <v>82</v>
+          </cell>
+          <cell r="AC14">
+            <v>66</v>
+          </cell>
+          <cell r="AD14">
+            <v>75</v>
+          </cell>
+          <cell r="AE14">
+            <v>67</v>
+          </cell>
+          <cell r="AF14">
+            <v>57</v>
+          </cell>
+          <cell r="AG14">
+            <v>73</v>
+          </cell>
+          <cell r="AH14">
+            <v>66</v>
+          </cell>
+          <cell r="AI14">
+            <v>67</v>
+          </cell>
+          <cell r="AJ14">
+            <v>69</v>
+          </cell>
+          <cell r="AK14">
+            <v>74</v>
+          </cell>
+          <cell r="AL14">
+            <v>74</v>
+          </cell>
+          <cell r="AM14">
+            <v>76</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NO_RSTs"/>
+      <sheetName val="East"/>
+      <sheetName val="West"/>
+      <sheetName val="Central"/>
+      <sheetName val="All RSTs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>8</v>
+          </cell>
+          <cell r="C2">
+            <v>3</v>
+          </cell>
+          <cell r="D2">
+            <v>4</v>
+          </cell>
+          <cell r="E2">
+            <v>7</v>
+          </cell>
+          <cell r="F2">
+            <v>7</v>
+          </cell>
+          <cell r="G2">
+            <v>7</v>
+          </cell>
+          <cell r="H2">
+            <v>7</v>
+          </cell>
+          <cell r="I2">
+            <v>9</v>
+          </cell>
+          <cell r="J2">
+            <v>10</v>
+          </cell>
+          <cell r="K2">
+            <v>6</v>
+          </cell>
+          <cell r="L2">
+            <v>7</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>8</v>
+          </cell>
+          <cell r="O2">
+            <v>4</v>
+          </cell>
+          <cell r="P2">
+            <v>6</v>
+          </cell>
+          <cell r="Q2">
+            <v>5</v>
+          </cell>
+          <cell r="R2">
+            <v>8</v>
+          </cell>
+          <cell r="S2">
+            <v>11</v>
+          </cell>
+          <cell r="T2">
+            <v>12</v>
+          </cell>
+          <cell r="U2">
+            <v>8</v>
+          </cell>
+          <cell r="V2">
+            <v>11</v>
+          </cell>
+          <cell r="W2">
+            <v>6</v>
+          </cell>
+          <cell r="X2">
+            <v>10</v>
+          </cell>
+          <cell r="Y2">
+            <v>4</v>
+          </cell>
+          <cell r="Z2">
+            <v>9</v>
+          </cell>
+          <cell r="AA2">
+            <v>4</v>
+          </cell>
+          <cell r="AB2">
+            <v>6</v>
+          </cell>
+          <cell r="AC2">
+            <v>7</v>
+          </cell>
+          <cell r="AD2">
+            <v>12</v>
+          </cell>
+          <cell r="AE2">
+            <v>11</v>
+          </cell>
+          <cell r="AF2">
+            <v>6</v>
+          </cell>
+          <cell r="AG2">
+            <v>7</v>
+          </cell>
+          <cell r="AH2">
+            <v>13</v>
+          </cell>
+          <cell r="AI2">
+            <v>3</v>
+          </cell>
+          <cell r="AJ2">
+            <v>5</v>
+          </cell>
+          <cell r="AK2">
+            <v>12</v>
+          </cell>
+          <cell r="AL2">
+            <v>8</v>
+          </cell>
+          <cell r="AM2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="C3">
+            <v>7</v>
+          </cell>
+          <cell r="D3">
+            <v>6</v>
+          </cell>
+          <cell r="E3">
+            <v>11</v>
+          </cell>
+          <cell r="F3">
+            <v>7</v>
+          </cell>
+          <cell r="G3">
+            <v>7</v>
+          </cell>
+          <cell r="H3">
+            <v>3</v>
+          </cell>
+          <cell r="I3">
+            <v>5</v>
+          </cell>
+          <cell r="J3">
+            <v>9</v>
+          </cell>
+          <cell r="K3">
+            <v>4</v>
+          </cell>
+          <cell r="L3">
+            <v>10</v>
+          </cell>
+          <cell r="M3">
+            <v>5</v>
+          </cell>
+          <cell r="N3">
+            <v>6</v>
+          </cell>
+          <cell r="O3">
+            <v>2</v>
+          </cell>
+          <cell r="P3">
+            <v>7</v>
+          </cell>
+          <cell r="Q3">
+            <v>3</v>
+          </cell>
+          <cell r="R3">
+            <v>7</v>
+          </cell>
+          <cell r="S3">
+            <v>8</v>
+          </cell>
+          <cell r="T3">
+            <v>1</v>
+          </cell>
+          <cell r="U3">
+            <v>11</v>
+          </cell>
+          <cell r="V3">
+            <v>7</v>
+          </cell>
+          <cell r="W3">
+            <v>9</v>
+          </cell>
+          <cell r="X3">
+            <v>6</v>
+          </cell>
+          <cell r="Y3">
+            <v>8</v>
+          </cell>
+          <cell r="Z3">
+            <v>3</v>
+          </cell>
+          <cell r="AA3">
+            <v>7</v>
+          </cell>
+          <cell r="AB3">
+            <v>10</v>
+          </cell>
+          <cell r="AC3">
+            <v>10</v>
+          </cell>
+          <cell r="AD3">
+            <v>9</v>
+          </cell>
+          <cell r="AE3">
+            <v>10</v>
+          </cell>
+          <cell r="AF3">
+            <v>3</v>
+          </cell>
+          <cell r="AG3">
+            <v>4</v>
+          </cell>
+          <cell r="AH3">
+            <v>2</v>
+          </cell>
+          <cell r="AI3">
+            <v>9</v>
+          </cell>
+          <cell r="AJ3">
+            <v>7</v>
+          </cell>
+          <cell r="AK3">
+            <v>10</v>
+          </cell>
+          <cell r="AL3">
+            <v>7</v>
+          </cell>
+          <cell r="AM3">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>9</v>
+          </cell>
+          <cell r="E4">
+            <v>5</v>
+          </cell>
+          <cell r="F4">
+            <v>8</v>
+          </cell>
+          <cell r="G4">
+            <v>5</v>
+          </cell>
+          <cell r="H4">
+            <v>10</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+          <cell r="J4">
+            <v>7</v>
+          </cell>
+          <cell r="K4">
+            <v>3</v>
+          </cell>
+          <cell r="L4">
+            <v>5</v>
+          </cell>
+          <cell r="M4">
+            <v>7</v>
+          </cell>
+          <cell r="N4">
+            <v>7</v>
+          </cell>
+          <cell r="O4">
+            <v>7</v>
+          </cell>
+          <cell r="P4">
+            <v>7</v>
+          </cell>
+          <cell r="Q4">
+            <v>6</v>
+          </cell>
+          <cell r="R4">
+            <v>10</v>
+          </cell>
+          <cell r="S4">
+            <v>3</v>
+          </cell>
+          <cell r="T4">
+            <v>8</v>
+          </cell>
+          <cell r="U4">
+            <v>5</v>
+          </cell>
+          <cell r="V4">
+            <v>8</v>
+          </cell>
+          <cell r="W4">
+            <v>2</v>
+          </cell>
+          <cell r="X4">
+            <v>10</v>
+          </cell>
+          <cell r="Y4">
+            <v>6</v>
+          </cell>
+          <cell r="Z4">
+            <v>5</v>
+          </cell>
+          <cell r="AA4">
+            <v>8</v>
+          </cell>
+          <cell r="AB4">
+            <v>4</v>
+          </cell>
+          <cell r="AC4">
+            <v>2</v>
+          </cell>
+          <cell r="AD4">
+            <v>7</v>
+          </cell>
+          <cell r="AE4">
+            <v>10</v>
+          </cell>
+          <cell r="AF4">
+            <v>1</v>
+          </cell>
+          <cell r="AG4">
+            <v>8</v>
+          </cell>
+          <cell r="AH4">
+            <v>7</v>
+          </cell>
+          <cell r="AI4">
+            <v>3</v>
+          </cell>
+          <cell r="AJ4">
+            <v>5</v>
+          </cell>
+          <cell r="AK4">
+            <v>6</v>
+          </cell>
+          <cell r="AL4">
+            <v>5</v>
+          </cell>
+          <cell r="AM4">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="C5">
+            <v>4</v>
+          </cell>
+          <cell r="D5">
+            <v>3</v>
+          </cell>
+          <cell r="E5">
+            <v>7</v>
+          </cell>
+          <cell r="F5">
+            <v>3</v>
+          </cell>
+          <cell r="G5">
+            <v>3</v>
+          </cell>
+          <cell r="H5">
+            <v>4</v>
+          </cell>
+          <cell r="I5">
+            <v>5</v>
+          </cell>
+          <cell r="J5">
+            <v>3</v>
+          </cell>
+          <cell r="K5">
+            <v>10</v>
+          </cell>
+          <cell r="L5">
+            <v>10</v>
+          </cell>
+          <cell r="M5">
+            <v>5</v>
+          </cell>
+          <cell r="N5">
+            <v>7</v>
+          </cell>
+          <cell r="O5">
+            <v>5</v>
+          </cell>
+          <cell r="P5">
+            <v>5</v>
+          </cell>
+          <cell r="Q5">
+            <v>4</v>
+          </cell>
+          <cell r="R5">
+            <v>5</v>
+          </cell>
+          <cell r="S5">
+            <v>5</v>
+          </cell>
+          <cell r="T5">
+            <v>4</v>
+          </cell>
+          <cell r="U5">
+            <v>6</v>
+          </cell>
+          <cell r="V5">
+            <v>5</v>
+          </cell>
+          <cell r="W5">
+            <v>6</v>
+          </cell>
+          <cell r="X5">
+            <v>6</v>
+          </cell>
+          <cell r="Y5">
+            <v>3</v>
+          </cell>
+          <cell r="Z5">
+            <v>4</v>
+          </cell>
+          <cell r="AA5">
+            <v>4</v>
+          </cell>
+          <cell r="AB5">
+            <v>5</v>
+          </cell>
+          <cell r="AC5">
+            <v>4</v>
+          </cell>
+          <cell r="AD5">
+            <v>6</v>
+          </cell>
+          <cell r="AE5">
+            <v>5</v>
+          </cell>
+          <cell r="AF5">
+            <v>7</v>
+          </cell>
+          <cell r="AG5">
+            <v>6</v>
+          </cell>
+          <cell r="AH5">
+            <v>4</v>
+          </cell>
+          <cell r="AI5">
+            <v>3</v>
+          </cell>
+          <cell r="AJ5">
+            <v>5</v>
+          </cell>
+          <cell r="AK5">
+            <v>7</v>
+          </cell>
+          <cell r="AL5">
+            <v>3</v>
+          </cell>
+          <cell r="AM5">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>5</v>
+          </cell>
+          <cell r="E6">
+            <v>5</v>
+          </cell>
+          <cell r="F6">
+            <v>4</v>
+          </cell>
+          <cell r="G6">
+            <v>6</v>
+          </cell>
+          <cell r="H6">
+            <v>4</v>
+          </cell>
+          <cell r="I6">
+            <v>2</v>
+          </cell>
+          <cell r="J6">
+            <v>7</v>
+          </cell>
+          <cell r="K6">
+            <v>4</v>
+          </cell>
+          <cell r="L6">
+            <v>6</v>
+          </cell>
+          <cell r="M6">
+            <v>3</v>
+          </cell>
+          <cell r="N6">
+            <v>1</v>
+          </cell>
+          <cell r="O6">
+            <v>9</v>
+          </cell>
+          <cell r="P6">
+            <v>3</v>
+          </cell>
+          <cell r="Q6">
+            <v>4</v>
+          </cell>
+          <cell r="R6">
+            <v>8</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+          <cell r="T6">
+            <v>3</v>
+          </cell>
+          <cell r="U6">
+            <v>5</v>
+          </cell>
+          <cell r="V6">
+            <v>9</v>
+          </cell>
+          <cell r="W6">
+            <v>3</v>
+          </cell>
+          <cell r="X6">
+            <v>2</v>
+          </cell>
+          <cell r="Y6">
+            <v>2</v>
+          </cell>
+          <cell r="Z6">
+            <v>12</v>
+          </cell>
+          <cell r="AA6">
+            <v>1</v>
+          </cell>
+          <cell r="AB6">
+            <v>4</v>
+          </cell>
+          <cell r="AC6">
+            <v>5</v>
+          </cell>
+          <cell r="AD6">
+            <v>7</v>
+          </cell>
+          <cell r="AE6">
+            <v>4</v>
+          </cell>
+          <cell r="AF6">
+            <v>3</v>
+          </cell>
+          <cell r="AG6">
+            <v>2</v>
+          </cell>
+          <cell r="AH6">
+            <v>5</v>
+          </cell>
+          <cell r="AI6">
+            <v>2</v>
+          </cell>
+          <cell r="AJ6">
+            <v>3</v>
+          </cell>
+          <cell r="AK6">
+            <v>4</v>
+          </cell>
+          <cell r="AL6">
+            <v>5</v>
+          </cell>
+          <cell r="AM6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7">
+            <v>4</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>1</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>1</v>
+          </cell>
+          <cell r="P7">
+            <v>4</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>1</v>
+          </cell>
+          <cell r="U7">
+            <v>0</v>
+          </cell>
+          <cell r="V7">
+            <v>1</v>
+          </cell>
+          <cell r="W7">
+            <v>2</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>2</v>
+          </cell>
+          <cell r="Z7">
+            <v>1</v>
+          </cell>
+          <cell r="AA7">
+            <v>1</v>
+          </cell>
+          <cell r="AB7">
+            <v>3</v>
+          </cell>
+          <cell r="AC7">
+            <v>0</v>
+          </cell>
+          <cell r="AD7">
+            <v>1</v>
+          </cell>
+          <cell r="AE7">
+            <v>2</v>
+          </cell>
+          <cell r="AF7">
+            <v>1</v>
+          </cell>
+          <cell r="AG7">
+            <v>2</v>
+          </cell>
+          <cell r="AH7">
+            <v>0</v>
+          </cell>
+          <cell r="AI7">
+            <v>2</v>
+          </cell>
+          <cell r="AJ7">
+            <v>1</v>
+          </cell>
+          <cell r="AK7">
+            <v>0</v>
+          </cell>
+          <cell r="AL7">
+            <v>1</v>
+          </cell>
+          <cell r="AM7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>2</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>2</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>1</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
+          <cell r="U8">
+            <v>1</v>
+          </cell>
+          <cell r="V8">
+            <v>1</v>
+          </cell>
+          <cell r="W8">
+            <v>1</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>1</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>4</v>
+          </cell>
+          <cell r="AB8">
+            <v>2</v>
+          </cell>
+          <cell r="AC8">
+            <v>0</v>
+          </cell>
+          <cell r="AD8">
+            <v>1</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>0</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>3</v>
+          </cell>
+          <cell r="AI8">
+            <v>2</v>
+          </cell>
+          <cell r="AJ8">
+            <v>0</v>
+          </cell>
+          <cell r="AK8">
+            <v>0</v>
+          </cell>
+          <cell r="AL8">
+            <v>1</v>
+          </cell>
+          <cell r="AM8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>5</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>4</v>
+          </cell>
+          <cell r="K9">
+            <v>2</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="N9">
+            <v>1</v>
+          </cell>
+          <cell r="O9">
+            <v>2</v>
+          </cell>
+          <cell r="P9">
+            <v>1</v>
+          </cell>
+          <cell r="Q9">
+            <v>1</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>2</v>
+          </cell>
+          <cell r="V9">
+            <v>2</v>
+          </cell>
+          <cell r="W9">
+            <v>2</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>0</v>
+          </cell>
+          <cell r="Z9">
+            <v>1</v>
+          </cell>
+          <cell r="AA9">
+            <v>0</v>
+          </cell>
+          <cell r="AB9">
+            <v>1</v>
+          </cell>
+          <cell r="AC9">
+            <v>1</v>
+          </cell>
+          <cell r="AD9">
+            <v>0</v>
+          </cell>
+          <cell r="AE9">
+            <v>3</v>
+          </cell>
+          <cell r="AF9">
+            <v>0</v>
+          </cell>
+          <cell r="AG9">
+            <v>3</v>
+          </cell>
+          <cell r="AH9">
+            <v>0</v>
+          </cell>
+          <cell r="AI9">
+            <v>0</v>
+          </cell>
+          <cell r="AJ9">
+            <v>0</v>
+          </cell>
+          <cell r="AK9">
+            <v>1</v>
+          </cell>
+          <cell r="AL9">
+            <v>6</v>
+          </cell>
+          <cell r="AM9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>3</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>3</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>2</v>
+          </cell>
+          <cell r="G10">
+            <v>3</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>5</v>
+          </cell>
+          <cell r="J10">
+            <v>6</v>
+          </cell>
+          <cell r="K10">
+            <v>4</v>
+          </cell>
+          <cell r="L10">
+            <v>6</v>
+          </cell>
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+          <cell r="N10">
+            <v>1</v>
+          </cell>
+          <cell r="O10">
+            <v>5</v>
+          </cell>
+          <cell r="P10">
+            <v>4</v>
+          </cell>
+          <cell r="Q10">
+            <v>10</v>
+          </cell>
+          <cell r="R10">
+            <v>4</v>
+          </cell>
+          <cell r="S10">
+            <v>1</v>
+          </cell>
+          <cell r="T10">
+            <v>3</v>
+          </cell>
+          <cell r="U10">
+            <v>3</v>
+          </cell>
+          <cell r="V10">
+            <v>4</v>
+          </cell>
+          <cell r="W10">
+            <v>1</v>
+          </cell>
+          <cell r="X10">
+            <v>1</v>
+          </cell>
+          <cell r="Y10">
+            <v>3</v>
+          </cell>
+          <cell r="Z10">
+            <v>0</v>
+          </cell>
+          <cell r="AA10">
+            <v>5</v>
+          </cell>
+          <cell r="AB10">
+            <v>0</v>
+          </cell>
+          <cell r="AC10">
+            <v>3</v>
+          </cell>
+          <cell r="AD10">
+            <v>5</v>
+          </cell>
+          <cell r="AE10">
+            <v>0</v>
+          </cell>
+          <cell r="AF10">
+            <v>3</v>
+          </cell>
+          <cell r="AG10">
+            <v>5</v>
+          </cell>
+          <cell r="AH10">
+            <v>1</v>
+          </cell>
+          <cell r="AI10">
+            <v>4</v>
+          </cell>
+          <cell r="AJ10">
+            <v>1</v>
+          </cell>
+          <cell r="AK10">
+            <v>0</v>
+          </cell>
+          <cell r="AL10">
+            <v>4</v>
+          </cell>
+          <cell r="AM10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>8</v>
+          </cell>
+          <cell r="C11">
+            <v>7</v>
+          </cell>
+          <cell r="D11">
+            <v>11</v>
+          </cell>
+          <cell r="E11">
+            <v>9</v>
+          </cell>
+          <cell r="F11">
+            <v>10</v>
+          </cell>
+          <cell r="G11">
+            <v>10</v>
+          </cell>
+          <cell r="H11">
+            <v>7</v>
+          </cell>
+          <cell r="I11">
+            <v>9</v>
+          </cell>
+          <cell r="J11">
+            <v>8</v>
+          </cell>
+          <cell r="K11">
+            <v>8</v>
+          </cell>
+          <cell r="L11">
+            <v>5</v>
+          </cell>
+          <cell r="M11">
+            <v>10</v>
+          </cell>
+          <cell r="N11">
+            <v>7</v>
+          </cell>
+          <cell r="O11">
+            <v>8</v>
+          </cell>
+          <cell r="P11">
+            <v>15</v>
+          </cell>
+          <cell r="Q11">
+            <v>13</v>
+          </cell>
+          <cell r="R11">
+            <v>6</v>
+          </cell>
+          <cell r="S11">
+            <v>6</v>
+          </cell>
+          <cell r="T11">
+            <v>15</v>
+          </cell>
+          <cell r="U11">
+            <v>9</v>
+          </cell>
+          <cell r="V11">
+            <v>3</v>
+          </cell>
+          <cell r="W11">
+            <v>9</v>
+          </cell>
+          <cell r="X11">
+            <v>8</v>
+          </cell>
+          <cell r="Y11">
+            <v>10</v>
+          </cell>
+          <cell r="Z11">
+            <v>6</v>
+          </cell>
+          <cell r="AA11">
+            <v>13</v>
+          </cell>
+          <cell r="AB11">
+            <v>11</v>
+          </cell>
+          <cell r="AC11">
+            <v>6</v>
+          </cell>
+          <cell r="AD11">
+            <v>12</v>
+          </cell>
+          <cell r="AE11">
+            <v>4</v>
+          </cell>
+          <cell r="AF11">
+            <v>14</v>
+          </cell>
+          <cell r="AG11">
+            <v>8</v>
+          </cell>
+          <cell r="AH11">
+            <v>5</v>
+          </cell>
+          <cell r="AI11">
+            <v>13</v>
+          </cell>
+          <cell r="AJ11">
+            <v>9</v>
+          </cell>
+          <cell r="AK11">
+            <v>5</v>
+          </cell>
+          <cell r="AL11">
+            <v>7</v>
+          </cell>
+          <cell r="AM11">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>15</v>
+          </cell>
+          <cell r="C12">
+            <v>18</v>
+          </cell>
+          <cell r="D12">
+            <v>8</v>
+          </cell>
+          <cell r="E12">
+            <v>13</v>
+          </cell>
+          <cell r="F12">
+            <v>8</v>
+          </cell>
+          <cell r="G12">
+            <v>12</v>
+          </cell>
+          <cell r="H12">
+            <v>8</v>
+          </cell>
+          <cell r="I12">
+            <v>8</v>
+          </cell>
+          <cell r="J12">
+            <v>11</v>
+          </cell>
+          <cell r="K12">
+            <v>6</v>
+          </cell>
+          <cell r="L12">
+            <v>11</v>
+          </cell>
+          <cell r="M12">
+            <v>16</v>
+          </cell>
+          <cell r="N12">
+            <v>11</v>
+          </cell>
+          <cell r="O12">
+            <v>11</v>
+          </cell>
+          <cell r="P12">
+            <v>11</v>
+          </cell>
+          <cell r="Q12">
+            <v>7</v>
+          </cell>
+          <cell r="R12">
+            <v>6</v>
+          </cell>
+          <cell r="S12">
+            <v>19</v>
+          </cell>
+          <cell r="T12">
+            <v>12</v>
+          </cell>
+          <cell r="U12">
+            <v>10</v>
+          </cell>
+          <cell r="V12">
+            <v>9</v>
+          </cell>
+          <cell r="W12">
+            <v>12</v>
+          </cell>
+          <cell r="X12">
+            <v>9</v>
+          </cell>
+          <cell r="Y12">
+            <v>7</v>
+          </cell>
+          <cell r="Z12">
+            <v>16</v>
+          </cell>
+          <cell r="AA12">
+            <v>13</v>
+          </cell>
+          <cell r="AB12">
+            <v>13</v>
+          </cell>
+          <cell r="AC12">
+            <v>11</v>
+          </cell>
+          <cell r="AD12">
+            <v>7</v>
+          </cell>
+          <cell r="AE12">
+            <v>14</v>
+          </cell>
+          <cell r="AF12">
+            <v>6</v>
+          </cell>
+          <cell r="AG12">
+            <v>18</v>
+          </cell>
+          <cell r="AH12">
+            <v>5</v>
+          </cell>
+          <cell r="AI12">
+            <v>12</v>
+          </cell>
+          <cell r="AJ12">
+            <v>14</v>
+          </cell>
+          <cell r="AK12">
+            <v>8</v>
+          </cell>
+          <cell r="AL12">
+            <v>12</v>
+          </cell>
+          <cell r="AM12">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>3</v>
+          </cell>
+          <cell r="C13">
+            <v>9</v>
+          </cell>
+          <cell r="D13">
+            <v>8</v>
+          </cell>
+          <cell r="E13">
+            <v>7</v>
+          </cell>
+          <cell r="F13">
+            <v>11</v>
+          </cell>
+          <cell r="G13">
+            <v>11</v>
+          </cell>
+          <cell r="H13">
+            <v>9</v>
+          </cell>
+          <cell r="I13">
+            <v>10</v>
+          </cell>
+          <cell r="J13">
+            <v>7</v>
+          </cell>
+          <cell r="K13">
+            <v>7</v>
+          </cell>
+          <cell r="L13">
+            <v>6</v>
+          </cell>
+          <cell r="M13">
+            <v>10</v>
+          </cell>
+          <cell r="N13">
+            <v>2</v>
+          </cell>
+          <cell r="O13">
+            <v>9</v>
+          </cell>
+          <cell r="P13">
+            <v>11</v>
+          </cell>
+          <cell r="Q13">
+            <v>5</v>
+          </cell>
+          <cell r="R13">
+            <v>17</v>
+          </cell>
+          <cell r="S13">
+            <v>4</v>
+          </cell>
+          <cell r="T13">
+            <v>7</v>
+          </cell>
+          <cell r="U13">
+            <v>14</v>
+          </cell>
+          <cell r="V13">
+            <v>12</v>
+          </cell>
+          <cell r="W13">
+            <v>11</v>
+          </cell>
+          <cell r="X13">
+            <v>2</v>
+          </cell>
+          <cell r="Y13">
+            <v>12</v>
+          </cell>
+          <cell r="Z13">
+            <v>13</v>
+          </cell>
+          <cell r="AA13">
+            <v>9</v>
+          </cell>
+          <cell r="AB13">
+            <v>13</v>
+          </cell>
+          <cell r="AC13">
+            <v>9</v>
+          </cell>
+          <cell r="AD13">
+            <v>5</v>
+          </cell>
+          <cell r="AE13">
+            <v>10</v>
+          </cell>
+          <cell r="AF13">
+            <v>7</v>
+          </cell>
+          <cell r="AG13">
+            <v>11</v>
+          </cell>
+          <cell r="AH13">
+            <v>7</v>
+          </cell>
+          <cell r="AI13">
+            <v>6</v>
+          </cell>
+          <cell r="AJ13">
+            <v>7</v>
+          </cell>
+          <cell r="AK13">
+            <v>10</v>
+          </cell>
+          <cell r="AL13">
+            <v>9</v>
+          </cell>
+          <cell r="AM13">
+            <v>11</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,9 +7127,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>19</v>
       </c>
@@ -1565,7 +7245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>22</v>
       </c>
@@ -1681,7 +7361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>25</v>
       </c>
@@ -1797,7 +7477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>21</v>
       </c>
@@ -1913,7 +7593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>28</v>
       </c>
@@ -2029,7 +7709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>26</v>
       </c>
@@ -2145,7 +7825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>30</v>
       </c>
@@ -2261,7 +7941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>31</v>
       </c>
@@ -2377,7 +8057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>24</v>
       </c>
@@ -2493,7 +8173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>22</v>
       </c>
@@ -2609,7 +8289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>15</v>
       </c>
@@ -2725,7 +8405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>24</v>
       </c>
@@ -2852,9 +8532,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>9</v>
       </c>
@@ -2970,7 +8650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>4</v>
       </c>
@@ -3080,7 +8760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -3196,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6</v>
       </c>
@@ -3312,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3422,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -3514,7 +9194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -3564,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1</v>
       </c>
@@ -3617,7 +9297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -3727,7 +9407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -3843,7 +9523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3959,7 +9639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -4086,9 +9766,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4144,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4197,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -4220,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>1</v>
       </c>
@@ -4237,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -4251,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>1</v>
       </c>
@@ -4265,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="AI8">
         <v>1</v>
       </c>
@@ -4273,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="W9">
         <v>1</v>
       </c>
@@ -4284,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -4307,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>3</v>
       </c>
@@ -4360,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -4410,7 +10090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>2</v>
       </c>
@@ -4489,9 +10169,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4586,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4663,7 +10343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4746,7 +10426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -4835,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
@@ -4897,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -4920,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>1</v>
       </c>
@@ -4934,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>1</v>
       </c>
@@ -4963,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>2</v>
       </c>
@@ -5004,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -5108,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -5224,7 +10904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5341,18 +11021,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AM16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="40" max="40" width="8.83984375" style="4"/>
+    <col min="40" max="40" width="8.85546875" style="4"/>
+    <col min="44" max="44" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
@@ -5508,8 +11189,20 @@
       <c r="AN1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="AO1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5628,11 +11321,25 @@
         <v>9</v>
       </c>
       <c r="AN2" s="4">
-        <f>AVERAGE(B2:AM2)</f>
+        <f t="shared" ref="AN2:AN13" si="1">AVERAGE(B2:AM2)</f>
         <v>11.5</v>
       </c>
+      <c r="AO2">
+        <v>9.66</v>
+      </c>
+      <c r="AP2">
+        <v>7.5</v>
+      </c>
+      <c r="AR2">
+        <f>CORREL(B2:AM13, '[1]All RSTs'!$B$2:$AM$13)</f>
+        <v>0.92395039311289684</v>
+      </c>
+      <c r="AS2">
+        <f>CORREL(B2:AM13, '[2]All RSTs'!$B$2:$AM$13)</f>
+        <v>0.86441133002626058</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5708,6 +11415,9 @@
       <c r="Y3">
         <v>14</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
       <c r="AA3">
         <v>9</v>
       </c>
@@ -5748,11 +11458,17 @@
         <v>13</v>
       </c>
       <c r="AN3" s="4">
-        <f>AVERAGE(B3:AM3)</f>
-        <v>9.9729729729729737</v>
+        <f t="shared" si="1"/>
+        <v>9.7105263157894743</v>
+      </c>
+      <c r="AO3">
+        <v>7.92</v>
+      </c>
+      <c r="AP3">
+        <v>6.7105263157894735</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5871,11 +11587,21 @@
         <v>4</v>
       </c>
       <c r="AN4" s="4">
-        <f>AVERAGE(B4:AM4)</f>
+        <f t="shared" si="1"/>
         <v>8.526315789473685</v>
       </c>
+      <c r="AO4">
+        <v>6.55</v>
+      </c>
+      <c r="AP4">
+        <v>5.9736842105263159</v>
+      </c>
+      <c r="AR4">
+        <f>CORREL(B14:AM14,'[1]All RSTs'!$B$14:$AM$14)</f>
+        <v>0.70490455774003324</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5994,11 +11720,17 @@
         <v>7</v>
       </c>
       <c r="AN5" s="4">
-        <f>AVERAGE(B5:AM5)</f>
+        <f t="shared" si="1"/>
         <v>6.3421052631578947</v>
       </c>
+      <c r="AO5">
+        <v>4.97</v>
+      </c>
+      <c r="AP5">
+        <v>5.1052631578947372</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6117,11 +11849,17 @@
         <v>2</v>
       </c>
       <c r="AN6" s="4">
-        <f>AVERAGE(B6:AM6)</f>
+        <f t="shared" si="1"/>
         <v>4.7368421052631575</v>
       </c>
+      <c r="AO6">
+        <v>3.72</v>
+      </c>
+      <c r="AP6">
+        <v>4.3783783783783781</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6161,6 +11899,12 @@
       <c r="M7">
         <v>6</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="P7">
         <v>4</v>
       </c>
@@ -6173,6 +11917,9 @@
       <c r="S7">
         <v>3</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
         <v>1</v>
       </c>
@@ -6197,18 +11944,30 @@
       <c r="AB7">
         <v>4</v>
       </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
       <c r="AD7">
         <v>1</v>
       </c>
       <c r="AE7">
         <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>3</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
       <c r="AI7">
         <v>4</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
       <c r="AK7">
         <v>1</v>
       </c>
@@ -6219,11 +11978,17 @@
         <v>3</v>
       </c>
       <c r="AN7" s="4">
-        <f>AVERAGE(B7:AM7)</f>
-        <v>2.967741935483871</v>
+        <f t="shared" si="1"/>
+        <v>2.4210526315789473</v>
+      </c>
+      <c r="AO7">
+        <v>2.15</v>
+      </c>
+      <c r="AP7">
+        <v>1.7916666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6233,15 +11998,27 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
@@ -6260,21 +12037,69 @@
       <c r="P8">
         <v>1</v>
       </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
       <c r="R8">
         <v>2</v>
       </c>
       <c r="S8">
         <v>2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>4</v>
       </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
       <c r="AD8">
         <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>4</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
       <c r="AL8">
         <v>2</v>
       </c>
@@ -6282,14 +12107,26 @@
         <v>1</v>
       </c>
       <c r="AN8" s="4">
-        <f>AVERAGE(B8:AM8)</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="AO8">
+        <v>1.31</v>
+      </c>
+      <c r="AP8">
+        <v>1.5555555555555556</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -6298,16 +12135,31 @@
       </c>
       <c r="F9">
         <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>4</v>
       </c>
@@ -6317,15 +12169,33 @@
       <c r="Q9">
         <v>3</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
         <v>3</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="X9">
         <v>2</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
       <c r="AA9">
         <v>2</v>
       </c>
@@ -6346,19 +12216,37 @@
       </c>
       <c r="AG9">
         <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>3</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
       <c r="AL9">
         <v>3</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
       <c r="AN9" s="4">
-        <f>AVERAGE(B9:AM9)</f>
-        <v>2.3809523809523809</v>
+        <f t="shared" si="1"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="AO9">
+        <v>2.21</v>
+      </c>
+      <c r="AP9">
+        <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6449,11 +12337,17 @@
       <c r="AD10">
         <v>5</v>
       </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
       <c r="AF10">
         <v>1</v>
       </c>
       <c r="AG10">
         <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>4</v>
@@ -6471,11 +12365,17 @@
         <v>2</v>
       </c>
       <c r="AN10" s="4">
-        <f>AVERAGE(B10:AM10)</f>
-        <v>4.75</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AO10">
+        <v>3.58</v>
+      </c>
+      <c r="AP10">
+        <v>3.4375</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6594,11 +12494,17 @@
         <v>11</v>
       </c>
       <c r="AN11" s="4">
-        <f>AVERAGE(B11:AM11)</f>
+        <f t="shared" si="1"/>
         <v>11.421052631578947</v>
       </c>
+      <c r="AO11">
+        <v>10.58</v>
+      </c>
+      <c r="AP11">
+        <v>8.7105263157894743</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -6717,11 +12623,17 @@
         <v>19</v>
       </c>
       <c r="AN12" s="4">
-        <f>AVERAGE(B12:AM12)</f>
+        <f t="shared" si="1"/>
         <v>14.631578947368421</v>
       </c>
+      <c r="AO12">
+        <v>13.71</v>
+      </c>
+      <c r="AP12">
+        <v>11.184210526315789</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -6840,8 +12752,488 @@
         <v>13</v>
       </c>
       <c r="AN13" s="4">
-        <f>AVERAGE(B13:AM13)</f>
+        <f t="shared" si="1"/>
         <v>13.605263157894736</v>
+      </c>
+      <c r="AO13">
+        <v>11.47</v>
+      </c>
+      <c r="AP13">
+        <v>8.7105263157894743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" ref="B14:AP14" si="2">SUM(B2:B13)</f>
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="AN14" s="4">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="2"/>
+        <v>77.83</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="2"/>
+        <v>67.200694585563014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B11+B12+B13</f>
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AM15" si="3">C11+C12+C13</f>
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B11+B12+B13+B2+B3+B4+B5</f>
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:AM16" si="4">C11+C12+C13+C2+C3+C4+C5</f>
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6849,4 +13241,18 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF0EA3E-2ABF-4D37-A203-61B5FBD4B366}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>